--- a/Manufacturing/BOM/MultimediaAndBlackBoxBoardRev1BOM.xlsx
+++ b/Manufacturing/BOM/MultimediaAndBlackBoxBoardRev1BOM.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Windows\ServiceProfiles\NetworkService\AppData\Local\Packages\oice_16_974fa576_32c1d314_14a1\AC\Temp\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alisa\Documents\GitHub\Multimedia_Hardware\Manufacturing\BOM\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="5" documentId="8_{99E7F601-972D-4510-90E7-D5F4387ED889}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6968077C-20B1-4903-9CC6-86443BC30D8B}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D98210-C331-4E87-85CF-2ACBDB50EC26}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="15600" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -1426,23 +1426,23 @@
   <dimension ref="A1:L24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="125" zoomScaleSheetLayoutView="100" workbookViewId="0">
-      <selection activeCell="K2" sqref="K2"/>
+      <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="19.1015625" customWidth="1"/>
-    <col min="3" max="3" width="26.6328125" customWidth="1"/>
-    <col min="4" max="4" width="12.9140625" customWidth="1"/>
-    <col min="5" max="5" width="13.71875" customWidth="1"/>
-    <col min="6" max="6" width="22.8671875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="30.265625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="9.68359375" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="11.8359375" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="209.05078125" customWidth="1"/>
+    <col min="2" max="2" width="19.140625" customWidth="1"/>
+    <col min="3" max="3" width="26.5703125" customWidth="1"/>
+    <col min="4" max="4" width="12.85546875" customWidth="1"/>
+    <col min="5" max="5" width="13.7109375" customWidth="1"/>
+    <col min="6" max="6" width="22.85546875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.28515625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="9.7109375" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="209" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -1519,7 +1519,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -1556,7 +1556,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -1593,7 +1593,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -1667,7 +1667,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1745,7 +1745,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>8</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>9</v>
       </c>
@@ -1823,7 +1823,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>10</v>
       </c>
@@ -1862,7 +1862,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>11</v>
       </c>
@@ -1901,7 +1901,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>12</v>
       </c>
@@ -1940,7 +1940,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>13</v>
       </c>
@@ -1979,7 +1979,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2018,7 +2018,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>15</v>
       </c>
@@ -2057,7 +2057,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>16</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A18">
         <v>17</v>
       </c>
@@ -2135,7 +2135,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" ht="26.25" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>18</v>
       </c>
@@ -2174,7 +2174,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>19</v>
       </c>
@@ -2213,7 +2213,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A21">
         <v>20</v>
       </c>
@@ -2252,7 +2252,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>21</v>
       </c>
@@ -2291,7 +2291,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>22</v>
       </c>
@@ -2330,7 +2330,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A24">
         <v>23</v>
       </c>
@@ -2372,30 +2372,31 @@
   </sheetData>
   <phoneticPr fontId="21" alignment="center"/>
   <hyperlinks>
-    <hyperlink ref="L12" r:id="rId1" xr:uid="{37CC7A0D-269C-4EB2-A7D8-13AE45127BD9}"/>
-    <hyperlink ref="L13" r:id="rId2" xr:uid="{98DE885D-4BD9-4727-8268-D260CCAF478E}"/>
-    <hyperlink ref="L11" r:id="rId3" xr:uid="{43BF8505-A209-47CE-B368-F13D77B360A2}"/>
-    <hyperlink ref="L15" r:id="rId4" xr:uid="{72F10657-FDB9-4974-9240-9648A0D727BC}"/>
-    <hyperlink ref="L14" r:id="rId5" xr:uid="{6F6CB8EA-ABCD-4128-AA95-239CEDFE7457}"/>
-    <hyperlink ref="L16" r:id="rId6" xr:uid="{185D597A-BA08-4A87-A046-3D32434AAA10}"/>
-    <hyperlink ref="L17" r:id="rId7" xr:uid="{BA6FF02D-560D-4000-8B55-96876D8AD32E}"/>
-    <hyperlink ref="L18" r:id="rId8" xr:uid="{0EA2A549-DE7B-437F-B2EA-BC922B8900F0}"/>
-    <hyperlink ref="L19" r:id="rId9" xr:uid="{C28D91F7-0B84-4002-B1D5-B205FD0F6ED0}"/>
-    <hyperlink ref="L21" r:id="rId10" xr:uid="{BAA29F91-0E3C-41CA-8624-BE22907E878A}"/>
-    <hyperlink ref="L22" r:id="rId11" xr:uid="{46D65B67-1736-4FBC-A807-A30FD9BDD684}"/>
+    <hyperlink ref="L2" r:id="rId1" xr:uid="{342B7EEA-8E21-44C3-9050-625D6150E56C}"/>
+    <hyperlink ref="L4" r:id="rId2" xr:uid="{738D2323-E48D-414D-8EC7-95BC9D76C42C}"/>
+    <hyperlink ref="L3" r:id="rId3" xr:uid="{75553567-60B1-4F86-8283-4B9104C6FF27}"/>
+    <hyperlink ref="L5" r:id="rId4" xr:uid="{663055A9-C91A-4B33-ABD7-6CB41D0775F6}"/>
+    <hyperlink ref="L6" r:id="rId5" xr:uid="{A131C375-E258-4497-9D06-BF10D0B4C888}"/>
+    <hyperlink ref="L8" r:id="rId6" xr:uid="{4359291A-8110-46CB-895E-2BB817BCAF04}"/>
+    <hyperlink ref="L7" r:id="rId7" xr:uid="{03C54B52-8747-4651-8761-9D41F4467ACE}"/>
+    <hyperlink ref="L10" r:id="rId8" xr:uid="{7A83BCD0-A32D-4CFC-BF1E-EB140507EDCE}"/>
+    <hyperlink ref="L9" r:id="rId9" xr:uid="{97708CA4-DE36-4CB3-A4AF-A81281E1E7F0}"/>
+    <hyperlink ref="L20" r:id="rId10" xr:uid="{61FDFE77-43F1-4A95-B9AB-43639F5CFA7F}"/>
+    <hyperlink ref="L23" r:id="rId11" xr:uid="{04143624-59BA-49CC-8684-6A5842137F5A}"/>
     <hyperlink ref="L24" r:id="rId12" xr:uid="{12928846-786E-4F33-8030-3439167753F2}"/>
-    <hyperlink ref="L23" r:id="rId13" xr:uid="{04143624-59BA-49CC-8684-6A5842137F5A}"/>
-    <hyperlink ref="L20" r:id="rId14" xr:uid="{61FDFE77-43F1-4A95-B9AB-43639F5CFA7F}"/>
-    <hyperlink ref="L9" r:id="rId15" xr:uid="{97708CA4-DE36-4CB3-A4AF-A81281E1E7F0}"/>
-    <hyperlink ref="L10" r:id="rId16" xr:uid="{7A83BCD0-A32D-4CFC-BF1E-EB140507EDCE}"/>
-    <hyperlink ref="L7" r:id="rId17" xr:uid="{03C54B52-8747-4651-8761-9D41F4467ACE}"/>
-    <hyperlink ref="L8" r:id="rId18" xr:uid="{4359291A-8110-46CB-895E-2BB817BCAF04}"/>
-    <hyperlink ref="L6" r:id="rId19" xr:uid="{A131C375-E258-4497-9D06-BF10D0B4C888}"/>
-    <hyperlink ref="L5" r:id="rId20" xr:uid="{663055A9-C91A-4B33-ABD7-6CB41D0775F6}"/>
-    <hyperlink ref="L3" r:id="rId21" xr:uid="{75553567-60B1-4F86-8283-4B9104C6FF27}"/>
-    <hyperlink ref="L4" r:id="rId22" xr:uid="{738D2323-E48D-414D-8EC7-95BC9D76C42C}"/>
-    <hyperlink ref="L2" r:id="rId23" xr:uid="{342B7EEA-8E21-44C3-9050-625D6150E56C}"/>
+    <hyperlink ref="L22" r:id="rId13" xr:uid="{46D65B67-1736-4FBC-A807-A30FD9BDD684}"/>
+    <hyperlink ref="L21" r:id="rId14" xr:uid="{BAA29F91-0E3C-41CA-8624-BE22907E878A}"/>
+    <hyperlink ref="L19" r:id="rId15" xr:uid="{C28D91F7-0B84-4002-B1D5-B205FD0F6ED0}"/>
+    <hyperlink ref="L18" r:id="rId16" xr:uid="{0EA2A549-DE7B-437F-B2EA-BC922B8900F0}"/>
+    <hyperlink ref="L17" r:id="rId17" xr:uid="{BA6FF02D-560D-4000-8B55-96876D8AD32E}"/>
+    <hyperlink ref="L16" r:id="rId18" xr:uid="{185D597A-BA08-4A87-A046-3D32434AAA10}"/>
+    <hyperlink ref="L14" r:id="rId19" xr:uid="{6F6CB8EA-ABCD-4128-AA95-239CEDFE7457}"/>
+    <hyperlink ref="L15" r:id="rId20" xr:uid="{72F10657-FDB9-4974-9240-9648A0D727BC}"/>
+    <hyperlink ref="L11" r:id="rId21" xr:uid="{43BF8505-A209-47CE-B368-F13D77B360A2}"/>
+    <hyperlink ref="L13" r:id="rId22" xr:uid="{98DE885D-4BD9-4727-8268-D260CCAF478E}"/>
+    <hyperlink ref="L12" r:id="rId23" xr:uid="{37CC7A0D-269C-4EB2-A7D8-13AE45127BD9}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId24"/>
 </worksheet>
 </file>